--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="137">
   <si>
     <t>Sezione</t>
   </si>
@@ -50,15 +50,15 @@
     <t>Certificato di residenza</t>
   </si>
   <si>
+    <t>SI</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
     <t>121-septies</t>
   </si>
   <si>
-    <t>SI</t>
-  </si>
-  <si>
     <t>Formazione atto</t>
   </si>
   <si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>dataConfermaAccordo</t>
+  </si>
+  <si>
+    <t>Riassunto della dichiarazione</t>
+  </si>
+  <si>
+    <t>modificaAccordo</t>
   </si>
   <si>
     <t>Marito</t>
@@ -475,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -557,7 +563,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -571,13 +577,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -617,7 +623,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
@@ -637,7 +643,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
@@ -657,7 +663,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>17</v>
@@ -677,7 +683,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>17</v>
@@ -717,7 +723,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>27</v>
@@ -737,7 +743,7 @@
         <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>27</v>
@@ -757,7 +763,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>27</v>
@@ -777,7 +783,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>27</v>
@@ -797,7 +803,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>27</v>
@@ -817,7 +823,7 @@
         <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>27</v>
@@ -837,7 +843,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>27</v>
@@ -857,7 +863,7 @@
         <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>27</v>
@@ -877,7 +883,7 @@
         <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>27</v>
@@ -906,7 +912,7 @@
         <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -926,7 +932,7 @@
         <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -937,7 +943,7 @@
         <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>51</v>
@@ -957,7 +963,7 @@
         <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>51</v>
@@ -977,7 +983,7 @@
         <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>51</v>
@@ -997,7 +1003,7 @@
         <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>51</v>
@@ -1017,7 +1023,7 @@
         <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>51</v>
@@ -1037,7 +1043,7 @@
         <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>51</v>
@@ -1057,7 +1063,7 @@
         <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>51</v>
@@ -1077,7 +1083,7 @@
         <v>66</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>67</v>
@@ -1097,7 +1103,7 @@
         <v>69</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>67</v>
@@ -1126,7 +1132,7 @@
         <v>72</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -1137,7 +1143,7 @@
         <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>67</v>
@@ -1151,56 +1157,56 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F34" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>82</v>
@@ -1211,16 +1217,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>84</v>
@@ -1231,16 +1237,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>86</v>
@@ -1251,16 +1257,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>88</v>
@@ -1271,16 +1277,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>90</v>
@@ -1291,7 +1297,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>91</v>
@@ -1300,7 +1306,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>92</v>
@@ -1311,7 +1317,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>93</v>
@@ -1320,7 +1326,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>94</v>
@@ -1331,7 +1337,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>95</v>
@@ -1340,7 +1346,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>96</v>
@@ -1351,16 +1357,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>98</v>
@@ -1371,16 +1377,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>100</v>
@@ -1391,16 +1397,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>102</v>
@@ -1411,16 +1417,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>104</v>
@@ -1431,16 +1437,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>106</v>
@@ -1451,7 +1457,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>107</v>
@@ -1460,7 +1466,7 @@
         <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>108</v>
@@ -1471,7 +1477,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>109</v>
@@ -1480,7 +1486,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>110</v>
@@ -1491,7 +1497,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>111</v>
@@ -1500,7 +1506,7 @@
         <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>112</v>
@@ -1511,7 +1517,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>113</v>
@@ -1520,7 +1526,7 @@
         <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>114</v>
@@ -1531,16 +1537,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>116</v>
@@ -1551,16 +1557,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>118</v>
@@ -1571,16 +1577,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>120</v>
@@ -1591,56 +1597,56 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F56" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>82</v>
@@ -1651,16 +1657,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>84</v>
@@ -1671,16 +1677,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>86</v>
@@ -1691,16 +1697,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>88</v>
@@ -1711,16 +1717,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>90</v>
@@ -1731,7 +1737,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>91</v>
@@ -1740,7 +1746,7 @@
         <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>92</v>
@@ -1751,7 +1757,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>93</v>
@@ -1760,7 +1766,7 @@
         <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>94</v>
@@ -1771,7 +1777,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>95</v>
@@ -1780,7 +1786,7 @@
         <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>96</v>
@@ -1791,16 +1797,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>98</v>
@@ -1811,16 +1817,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>100</v>
@@ -1831,16 +1837,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>102</v>
@@ -1851,16 +1857,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>104</v>
@@ -1871,16 +1877,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>106</v>
@@ -1891,7 +1897,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>107</v>
@@ -1900,7 +1906,7 @@
         <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>108</v>
@@ -1911,7 +1917,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>109</v>
@@ -1920,7 +1926,7 @@
         <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>110</v>
@@ -1931,7 +1937,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>111</v>
@@ -1940,7 +1946,7 @@
         <v>8</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>112</v>
@@ -1951,7 +1957,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>113</v>
@@ -1960,7 +1966,7 @@
         <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>114</v>
@@ -1971,16 +1977,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>116</v>
@@ -1991,16 +1997,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>118</v>
@@ -2011,16 +2017,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>120</v>
@@ -2034,136 +2040,136 @@
         <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C81" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2171,13 +2177,13 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>67</v>
@@ -2186,6 +2192,26 @@
         <v>134</v>
       </c>
       <c r="F85" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="143">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,9 +47,15 @@
     <t/>
   </si>
   <si>
+    <t>{{evento.intestatari[0].nazionalita,!=,"ITALIANA" },{evento.intestatari[0].nazionalita,!=,"ITALIANA"}}</t>
+  </si>
+  <si>
     <t>Atto di matrimonio straniero, tradotto e legalizzato</t>
   </si>
   <si>
+    <t>{{evento.intestatari[0].nazionalita,=,"ITALIANA" },{evento.intestatari[0].nazionalita,=,"ITALIANA"}}</t>
+  </si>
+  <si>
     <t>Certificato di residenza</t>
   </si>
   <si>
@@ -71,6 +80,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -395,6 +407,9 @@
     <t>evento.separazione.avvocatoConiuge1</t>
   </si>
   <si>
+    <t>{evento.separazione.presenzaAvvocatoConiuge1,=,false}</t>
+  </si>
+  <si>
     <t>Foro di appartenenza</t>
   </si>
   <si>
@@ -405,6 +420,9 @@
   </si>
   <si>
     <t>evento.separazione.avvocatoConiuge2</t>
+  </si>
+  <si>
+    <t>{evento.separazione.presenzaAvvocatoConiuge2,=,false}</t>
   </si>
   <si>
     <t>foroAvvocatoConiuge2</t>
@@ -481,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -493,6 +511,7 @@
     <col min="4" max="4" width="43.8046875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.78515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.8125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -514,85 +533,100 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -614,1605 +648,1848 @@
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="144">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,40 +32,43 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Atto di matrimonio</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{{evento.intestatari[0].nazionalita,!=,"ITALIANA" },{evento.intestatari[0].nazionalita,!=,"ITALIANA"}}</t>
+  </si>
+  <si>
+    <t>Atto di matrimonio straniero, tradotto e legalizzato</t>
+  </si>
+  <si>
+    <t>{{evento.intestatari[0].nazionalita,=,"ITALIANA" },{evento.intestatari[0].nazionalita,=,"ITALIANA"}}</t>
+  </si>
+  <si>
+    <t>Certificato di residenza</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>121-septies</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Atto di matrimonio</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{{evento.intestatari[0].nazionalita,!=,"ITALIANA" },{evento.intestatari[0].nazionalita,!=,"ITALIANA"}}</t>
-  </si>
-  <si>
-    <t>Atto di matrimonio straniero, tradotto e legalizzato</t>
-  </si>
-  <si>
-    <t>{{evento.intestatari[0].nazionalita,=,"ITALIANA" },{evento.intestatari[0].nazionalita,=,"ITALIANA"}}</t>
-  </si>
-  <si>
-    <t>Certificato di residenza</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>121-septies</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -649,1847 +652,1847 @@
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E84" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
@@ -47,13 +47,13 @@
     <t/>
   </si>
   <si>
-    <t>{{evento.intestatari[0].nazionalita,!=,"ITALIANA" },{evento.intestatari[0].nazionalita,!=,"ITALIANA"}}</t>
+    <t>evento.intestatari[0].nazionalita,!=,"ITALIANA"</t>
   </si>
   <si>
     <t>Atto di matrimonio straniero, tradotto e legalizzato</t>
   </si>
   <si>
-    <t>{{evento.intestatari[0].nazionalita,=,"ITALIANA" },{evento.intestatari[0].nazionalita,=,"ITALIANA"}}</t>
+    <t>evento.intestatari[0].nazionalita,=,"ITALIANA"</t>
   </si>
   <si>
     <t>Certificato di residenza</t>
@@ -410,7 +410,7 @@
     <t>evento.separazione.avvocatoConiuge1</t>
   </si>
   <si>
-    <t>{evento.separazione.presenzaAvvocatoConiuge1,=,false}</t>
+    <t>evento.separazione.presenzaAvvocatoConiuge1,=,false</t>
   </si>
   <si>
     <t>Foro di appartenenza</t>
@@ -425,7 +425,7 @@
     <t>evento.separazione.avvocatoConiuge2</t>
   </si>
   <si>
-    <t>{evento.separazione.presenzaAvvocatoConiuge2,=,false}</t>
+    <t>evento.separazione.presenzaAvvocatoConiuge2,=,false</t>
   </si>
   <si>
     <t>foroAvvocatoConiuge2</t>
@@ -514,7 +514,7 @@
     <col min="4" max="4" width="43.8046875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.78515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="89.8125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="50.27734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
@@ -47,13 +47,13 @@
     <t/>
   </si>
   <si>
-    <t>evento.intestatari[0].nazionalita,!=,"ITALIANA"</t>
+    <t>evento.intestatari[0].nazionalita,!=,"ITALIANA" &amp;&amp; evento.intestatari[0].nazionalita,!=,"ITALIANA"</t>
   </si>
   <si>
     <t>Atto di matrimonio straniero, tradotto e legalizzato</t>
   </si>
   <si>
-    <t>evento.intestatari[0].nazionalita,=,"ITALIANA"</t>
+    <t>evento.intestatari[0].nazionalita,=,"ITALIANA" &amp;&amp; evento.intestatari[0].nazionalita,=,"ITALIANA"</t>
   </si>
   <si>
     <t>Certificato di residenza</t>
@@ -514,7 +514,7 @@
     <col min="4" max="4" width="43.8046875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.78515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="50.27734375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="88.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="147">
   <si>
     <t>Sezione</t>
   </si>
@@ -104,6 +104,18 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Dati Generali</t>
+  </si>
+  <si>
+    <t>Data Evento Matrimonio</t>
+  </si>
+  <si>
+    <t>evento.separazione</t>
+  </si>
+  <si>
+    <t>dataEventoMatrimonio</t>
+  </si>
+  <si>
     <t>Atto di Matrimonio</t>
   </si>
   <si>
@@ -228,9 +240,6 @@
   </si>
   <si>
     <t>Tipo accordo</t>
-  </si>
-  <si>
-    <t>evento.separazione</t>
   </si>
   <si>
     <t>tipoAccordo</t>
@@ -502,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -755,7 +764,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
@@ -772,19 +781,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
@@ -795,19 +804,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -818,19 +827,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -841,19 +850,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -864,19 +873,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -887,19 +896,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -910,19 +919,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -933,19 +942,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -956,19 +965,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -979,19 +988,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -1002,19 +1011,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -1025,16 +1034,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>57</v>
@@ -1048,19 +1057,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -1071,19 +1080,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -1094,19 +1103,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -1117,19 +1126,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -1140,19 +1149,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1163,19 +1172,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1186,16 +1195,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>73</v>
@@ -1209,19 +1218,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1232,22 +1241,22 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>23</v>
@@ -1255,22 +1264,22 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>23</v>
@@ -1278,19 +1287,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1301,22 +1310,22 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F35" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>23</v>
@@ -1324,22 +1333,22 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>23</v>
@@ -1347,19 +1356,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1370,19 +1379,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1393,19 +1402,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1416,19 +1425,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1439,19 +1448,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1462,19 +1471,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1485,19 +1494,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1508,19 +1517,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1531,19 +1540,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1554,19 +1563,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1577,19 +1586,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1600,19 +1609,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1623,19 +1632,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1646,19 +1655,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1669,19 +1678,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1692,19 +1701,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1715,19 +1724,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1738,19 +1747,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1761,19 +1770,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1784,19 +1793,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1807,22 +1816,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>23</v>
@@ -1830,22 +1839,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>23</v>
@@ -1853,19 +1862,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1876,19 +1885,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1899,19 +1908,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1922,19 +1931,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1945,19 +1954,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1968,19 +1977,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1991,19 +2000,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2014,19 +2023,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2037,19 +2046,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2060,19 +2069,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2083,19 +2092,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2106,19 +2115,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2129,19 +2138,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2152,19 +2161,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2175,19 +2184,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2198,19 +2207,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2221,19 +2230,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2244,19 +2253,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2267,19 +2276,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2290,19 +2299,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2313,30 +2322,30 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>86</v>
@@ -2345,67 +2354,67 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>86</v>
@@ -2414,53 +2423,53 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>141</v>
@@ -2469,29 +2478,52 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="2" t="s">
+      <c r="B87" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="164">
   <si>
     <t>Sezione</t>
   </si>
@@ -104,7 +104,7 @@
     <t>minuto</t>
   </si>
   <si>
-    <t>Dati Generali</t>
+    <t>Dati generali</t>
   </si>
   <si>
     <t>Data Evento Matrimonio</t>
@@ -114,6 +114,57 @@
   </si>
   <si>
     <t>dataEventoMatrimonio</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>evento.separazione.luogoEventoMatrimonio</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Comune estero</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Celebrato da</t>
+  </si>
+  <si>
+    <t>officianteEventoMatrimonio</t>
   </si>
   <si>
     <t>Atto di Matrimonio</t>
@@ -511,7 +562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -521,7 +572,7 @@
     <col min="2" max="2" width="46.78515625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="43.8046875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="25.78515625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.41796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="88.609375" customWidth="true" bestFit="true"/>
   </cols>
@@ -781,19 +832,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
@@ -804,22 +855,22 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>23</v>
@@ -827,19 +878,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -850,19 +901,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -873,19 +924,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -896,22 +947,22 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>23</v>
@@ -919,22 +970,22 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>23</v>
@@ -942,7 +993,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
@@ -951,7 +1002,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -965,19 +1016,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -988,19 +1039,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -1011,19 +1062,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -1034,19 +1085,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -1057,19 +1108,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -1080,19 +1131,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -1103,19 +1154,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -1126,7 +1177,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>66</v>
@@ -1135,7 +1186,7 @@
         <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>67</v>
@@ -1149,19 +1200,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1172,19 +1223,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1195,19 +1246,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1218,19 +1269,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1241,16 +1292,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -1264,22 +1315,22 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>23</v>
@@ -1287,7 +1338,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
@@ -1296,7 +1347,7 @@
         <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1310,7 +1361,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
@@ -1319,7 +1370,7 @@
         <v>15</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>84</v>
@@ -1333,22 +1384,22 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>23</v>
@@ -1356,19 +1407,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1379,19 +1430,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1402,19 +1453,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1425,19 +1476,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1448,22 +1499,22 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>23</v>
@@ -1471,19 +1522,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1494,19 +1545,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1517,7 +1568,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>103</v>
@@ -1526,13 +1577,13 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>23</v>
@@ -1540,19 +1591,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1563,19 +1614,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1586,19 +1637,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1609,19 +1660,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1632,19 +1683,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1655,19 +1706,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1678,19 +1729,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1701,19 +1752,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1724,19 +1775,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1747,19 +1798,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1770,19 +1821,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1793,19 +1844,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1816,19 +1867,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1839,22 +1890,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>23</v>
@@ -1862,19 +1913,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1885,19 +1936,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1908,19 +1959,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1931,19 +1982,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1954,19 +2005,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1977,19 +2028,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2000,19 +2051,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2023,7 +2074,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>103</v>
@@ -2032,13 +2083,13 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>23</v>
@@ -2046,19 +2097,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2069,19 +2120,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2092,19 +2143,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2115,19 +2166,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2138,19 +2189,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2161,19 +2212,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2184,19 +2235,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2207,19 +2258,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2230,19 +2281,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2253,19 +2304,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2276,19 +2327,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2299,19 +2350,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2322,19 +2373,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2345,53 +2396,53 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>135</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>135</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>136</v>
@@ -2400,7 +2451,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>137</v>
@@ -2409,93 +2460,93 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>135</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2506,24 +2557,208 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="2" t="s">
+      <c r="E90" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="172">
   <si>
     <t>Sezione</t>
   </si>
@@ -59,15 +59,15 @@
     <t>Certificato di residenza</t>
   </si>
   <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>121-septies</t>
+  </si>
+  <si>
     <t>SI</t>
   </si>
   <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>121-septies</t>
-  </si>
-  <si>
     <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
@@ -290,6 +290,15 @@
     <t>Dettaglio accordo</t>
   </si>
   <si>
+    <t>Tipo separazione divorzio</t>
+  </si>
+  <si>
+    <t>tipoSeparazioneDivorzio</t>
+  </si>
+  <si>
+    <t>evento.separazione.assegnoMantenimento,=,true</t>
+  </si>
+  <si>
     <t>Tipo accordo</t>
   </si>
   <si>
@@ -320,6 +329,15 @@
     <t>modificaAccordo</t>
   </si>
   <si>
+    <t>evento.separazione.assegnoMantenimento,=,false</t>
+  </si>
+  <si>
+    <t>Dati assegno mantenimento/divorzile</t>
+  </si>
+  <si>
+    <t>datiAssegnoMantenimento</t>
+  </si>
+  <si>
     <t>Marito</t>
   </si>
   <si>
@@ -492,6 +510,12 @@
   </si>
   <si>
     <t>Dettagli evento</t>
+  </si>
+  <si>
+    <t>Assegno Mantentimento/Divorzile</t>
+  </si>
+  <si>
+    <t>assegnoMantenimento</t>
   </si>
   <si>
     <t>Presenza avvocato Marito</t>
@@ -562,7 +586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -654,7 +678,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -671,13 +695,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -723,7 +747,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>21</v>
@@ -746,7 +770,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>21</v>
@@ -769,7 +793,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>21</v>
@@ -792,7 +816,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>21</v>
@@ -815,7 +839,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
@@ -838,7 +862,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>35</v>
@@ -870,7 +894,7 @@
         <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>23</v>
@@ -962,7 +986,7 @@
         <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>23</v>
@@ -985,7 +1009,7 @@
         <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>23</v>
@@ -999,7 +1023,7 @@
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>32</v>
@@ -1045,7 +1069,7 @@
         <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>53</v>
@@ -1068,7 +1092,7 @@
         <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>53</v>
@@ -1091,7 +1115,7 @@
         <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>53</v>
@@ -1114,7 +1138,7 @@
         <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>53</v>
@@ -1137,7 +1161,7 @@
         <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>53</v>
@@ -1160,7 +1184,7 @@
         <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>53</v>
@@ -1183,7 +1207,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>53</v>
@@ -1229,7 +1253,7 @@
         <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>53</v>
@@ -1261,7 +1285,7 @@
         <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>23</v>
@@ -1284,7 +1308,7 @@
         <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>23</v>
@@ -1298,7 +1322,7 @@
         <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>77</v>
@@ -1321,7 +1345,7 @@
         <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>77</v>
@@ -1344,7 +1368,7 @@
         <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>77</v>
@@ -1367,7 +1391,7 @@
         <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>77</v>
@@ -1390,7 +1414,7 @@
         <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>77</v>
@@ -1413,7 +1437,7 @@
         <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>77</v>
@@ -1436,7 +1460,7 @@
         <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>77</v>
@@ -1459,7 +1483,7 @@
         <v>92</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>32</v>
@@ -1471,7 +1495,7 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40">
@@ -1479,22 +1503,22 @@
         <v>91</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41">
@@ -1502,22 +1526,22 @@
         <v>91</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42">
@@ -1525,22 +1549,22 @@
         <v>91</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43">
@@ -1548,203 +1572,203 @@
         <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>23</v>
@@ -1752,19 +1776,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1775,19 +1799,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1798,19 +1822,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1821,19 +1845,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1844,19 +1868,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1867,19 +1891,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1890,19 +1914,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1913,19 +1937,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1936,19 +1960,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1959,19 +1983,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1982,19 +2006,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2005,19 +2029,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2028,19 +2052,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2051,19 +2075,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2074,22 +2098,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>23</v>
@@ -2097,19 +2121,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2120,19 +2144,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2143,19 +2167,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2166,19 +2190,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2189,19 +2213,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2212,19 +2236,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2235,22 +2259,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>23</v>
@@ -2258,19 +2282,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2281,19 +2305,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2304,19 +2328,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2327,19 +2351,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2350,19 +2374,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2373,19 +2397,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2396,19 +2420,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2419,19 +2443,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2442,19 +2466,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2465,19 +2489,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2488,19 +2512,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2511,19 +2535,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2534,19 +2558,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2557,19 +2581,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2580,157 +2604,157 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>152</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>152</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>152</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="E92" s="2" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E93" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2741,24 +2765,208 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95" s="2" t="s">
+      <c r="E98" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E100" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="2" t="s">
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="169">
   <si>
     <t>Sezione</t>
   </si>
@@ -41,31 +41,22 @@
     <t>Atto di matrimonio</t>
   </si>
   <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Certificato di residenza</t>
+  </si>
+  <si>
     <t>NO</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>evento.intestatari[0].nazionalita,!=,"ITALIANA" &amp;&amp; evento.intestatari[0].nazionalita,!=,"ITALIANA"</t>
-  </si>
-  <si>
-    <t>Atto di matrimonio straniero, tradotto e legalizzato</t>
-  </si>
-  <si>
-    <t>evento.intestatari[0].nazionalita,=,"ITALIANA" &amp;&amp; evento.intestatari[0].nazionalita,=,"ITALIANA"</t>
-  </si>
-  <si>
-    <t>Certificato di residenza</t>
-  </si>
-  <si>
     <t>Formula</t>
   </si>
   <si>
     <t>121-septies</t>
-  </si>
-  <si>
-    <t>SI</t>
   </si>
   <si>
     <t>Si puo' ignorare la sezione per</t>
@@ -586,19 +577,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.09765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.78515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.66796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="43.8046875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.41796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="88.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="50.27734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -644,7 +635,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -652,10 +643,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -667,12 +658,12 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>14</v>
@@ -694,63 +685,63 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -759,87 +750,87 @@
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
@@ -851,196 +842,196 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>52</v>
@@ -1049,251 +1040,251 @@
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>73</v>
@@ -1302,168 +1293,168 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>90</v>
@@ -1472,21 +1463,21 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>93</v>
@@ -1495,265 +1486,265 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E48" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>109</v>
@@ -1762,504 +1753,504 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>109</v>
@@ -2268,628 +2259,628 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="E94" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F96" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E97" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F99" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>164</v>
@@ -2898,76 +2889,53 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>163</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="170">
   <si>
     <t>Sezione</t>
   </si>
@@ -146,7 +146,7 @@
     <t>nomeComune</t>
   </si>
   <si>
-    <t>Comune estero</t>
+    <t>Località estera</t>
   </si>
   <si>
     <t>comuneEstero</t>
@@ -212,24 +212,24 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
   </si>
   <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
-  </si>
-  <si>
     <t>Estremi separazione</t>
   </si>
   <si>
@@ -393,6 +393,9 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -577,7 +580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1221,7 +1224,7 @@
         <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>50</v>
@@ -1230,7 +1233,7 @@
         <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>20</v>
@@ -1267,7 +1270,7 @@
         <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>50</v>
@@ -1276,7 +1279,7 @@
         <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>20</v>
@@ -1954,16 +1957,16 @@
         <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1977,7 +1980,7 @@
         <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
@@ -1986,7 +1989,7 @@
         <v>107</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2000,7 +2003,7 @@
         <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
@@ -2009,7 +2012,7 @@
         <v>107</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2023,7 +2026,7 @@
         <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
@@ -2032,7 +2035,7 @@
         <v>107</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2046,16 +2049,16 @@
         <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2069,7 +2072,7 @@
         <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
@@ -2078,7 +2081,7 @@
         <v>107</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2092,7 +2095,7 @@
         <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
@@ -2101,7 +2104,7 @@
         <v>107</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2115,7 +2118,7 @@
         <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
@@ -2124,7 +2127,7 @@
         <v>107</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2138,7 +2141,7 @@
         <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
@@ -2147,7 +2150,7 @@
         <v>107</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2161,16 +2164,16 @@
         <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2184,7 +2187,7 @@
         <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
@@ -2193,7 +2196,7 @@
         <v>107</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2207,7 +2210,7 @@
         <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
@@ -2216,7 +2219,7 @@
         <v>107</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2227,22 +2230,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>20</v>
@@ -2250,22 +2253,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>20</v>
@@ -2273,19 +2276,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2296,19 +2299,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2319,19 +2322,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2342,19 +2345,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2365,19 +2368,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2388,19 +2391,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2411,19 +2414,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2434,19 +2437,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2457,19 +2460,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2480,19 +2483,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2503,19 +2506,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2526,19 +2529,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2549,19 +2552,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2572,19 +2575,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2595,19 +2598,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2618,19 +2621,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2641,19 +2644,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2664,19 +2667,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2687,19 +2690,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2710,19 +2713,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2733,194 +2736,194 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E94" s="2" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E95" s="2" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F98" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="E99" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -2929,12 +2932,58 @@
         <v>29</v>
       </c>
       <c r="E102" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="179">
   <si>
     <t>Sezione</t>
   </si>
@@ -242,6 +242,9 @@
     <t>dataTrascrizione</t>
   </si>
   <si>
+    <t>evento.separazione.tipoProvvedimentoSeparazione,!=,1</t>
+  </si>
+  <si>
     <t>Estremi documento</t>
   </si>
   <si>
@@ -287,7 +290,7 @@
     <t>tipoSeparazioneDivorzio</t>
   </si>
   <si>
-    <t>evento.separazione.assegnoMantenimento,=,true</t>
+    <t>(evento.separazione.assegnoMantenimento,=,true &amp;&amp; evento.separazione.tipoProvvedimentoSeparazione,=,1) || evento.separazione.tipoProvvedimentoSeparazione,=,2 || evento.separazione.tipoProvvedimentoSeparazione,=,3</t>
   </si>
   <si>
     <t>Tipo accordo</t>
@@ -320,7 +323,7 @@
     <t>modificaAccordo</t>
   </si>
   <si>
-    <t>evento.separazione.assegnoMantenimento,=,false</t>
+    <t>(evento.separazione.assegnoMantenimento,=,false &amp;&amp; evento.separazione.tipoProvvedimentoSeparazione,=,1) || evento.separazione.tipoProvvedimentoSeparazione,=,2 || evento.separazione.tipoProvvedimentoSeparazione,=,3</t>
   </si>
   <si>
     <t>Dati assegno mantenimento/divorzile</t>
@@ -503,7 +506,31 @@
     <t>foroAvvocatoConiuge2</t>
   </si>
   <si>
+    <t>Accordo Separazione</t>
+  </si>
+  <si>
+    <t>evento.separazione.accordoSeparazione</t>
+  </si>
+  <si>
+    <t>evento.separazione.tipoProvvedimentoSeparazione,=,1</t>
+  </si>
+  <si>
+    <t>Conferma Accordo Separazione</t>
+  </si>
+  <si>
+    <t>evento.separazione.confermaAccordoSeparazione</t>
+  </si>
+  <si>
+    <t>evento.separazione.tipoProvvedimentoSeparazione,!=,3</t>
+  </si>
+  <si>
     <t>Dettagli evento</t>
+  </si>
+  <si>
+    <t>Tipo Separazione</t>
+  </si>
+  <si>
+    <t>tipoProvvedimentoSeparazione</t>
   </si>
   <si>
     <t>Assegno Mantentimento/Divorzile</t>
@@ -580,19 +607,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.09765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.16015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="34.66796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="43.8046875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="26.41796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="46.0390625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="29.2265625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="50.27734375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="206.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1305,7 +1332,7 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32">
@@ -1313,7 +1340,7 @@
         <v>72</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
@@ -1322,13 +1349,13 @@
         <v>74</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
@@ -1336,7 +1363,7 @@
         <v>72</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
@@ -1345,13 +1372,13 @@
         <v>74</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
@@ -1359,7 +1386,7 @@
         <v>72</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -1368,13 +1395,13 @@
         <v>74</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
@@ -1382,7 +1409,7 @@
         <v>72</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
@@ -1391,13 +1418,13 @@
         <v>74</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36">
@@ -1405,7 +1432,7 @@
         <v>72</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -1414,13 +1441,13 @@
         <v>74</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37">
@@ -1428,7 +1455,7 @@
         <v>72</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
@@ -1437,21 +1464,21 @@
         <v>74</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -1460,21 +1487,21 @@
         <v>29</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
@@ -1483,21 +1510,21 @@
         <v>29</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
@@ -1506,21 +1533,21 @@
         <v>29</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
@@ -1529,21 +1556,21 @@
         <v>29</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
@@ -1552,21 +1579,21 @@
         <v>29</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
@@ -1575,21 +1602,21 @@
         <v>29</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
@@ -1598,21 +1625,21 @@
         <v>29</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
@@ -1621,67 +1648,67 @@
         <v>29</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -1690,21 +1717,21 @@
         <v>29</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
@@ -1713,56 +1740,56 @@
         <v>29</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>20</v>
@@ -1770,19 +1797,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1793,19 +1820,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1816,19 +1843,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1839,19 +1866,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1862,19 +1889,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1885,19 +1912,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1908,19 +1935,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1931,19 +1958,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1954,16 +1981,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>127</v>
@@ -1977,19 +2004,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2000,19 +2027,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2023,19 +2050,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2046,19 +2073,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2069,19 +2096,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2092,19 +2119,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2115,19 +2142,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2138,19 +2165,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2161,19 +2188,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2184,19 +2211,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2207,19 +2234,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2230,19 +2257,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2253,22 +2280,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>20</v>
@@ -2276,22 +2303,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>20</v>
@@ -2299,19 +2326,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2322,19 +2349,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2345,19 +2372,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2368,19 +2395,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2391,19 +2418,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2414,19 +2441,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2437,19 +2464,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2460,19 +2487,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2483,16 +2510,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>127</v>
@@ -2506,19 +2533,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2529,19 +2556,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2552,19 +2579,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2575,19 +2602,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2598,19 +2625,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2621,19 +2648,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2644,19 +2671,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2667,19 +2694,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2690,19 +2717,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2713,19 +2740,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2736,19 +2763,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2759,19 +2786,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2782,208 +2809,806 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="E96" s="2" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>156</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F99" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="E101" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>20</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="E115" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
+      <c r="E127" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="170">
   <si>
     <t>Sezione</t>
   </si>
@@ -242,9 +242,6 @@
     <t>dataTrascrizione</t>
   </si>
   <si>
-    <t>evento.separazione.tipoProvvedimentoSeparazione,!=,1</t>
-  </si>
-  <si>
     <t>Estremi documento</t>
   </si>
   <si>
@@ -290,7 +287,7 @@
     <t>tipoSeparazioneDivorzio</t>
   </si>
   <si>
-    <t>(evento.separazione.assegnoMantenimento,=,true &amp;&amp; evento.separazione.tipoProvvedimentoSeparazione,=,1) || evento.separazione.tipoProvvedimentoSeparazione,=,2 || evento.separazione.tipoProvvedimentoSeparazione,=,3</t>
+    <t>evento.separazione.assegnoMantenimento,=,true</t>
   </si>
   <si>
     <t>Tipo accordo</t>
@@ -323,7 +320,7 @@
     <t>modificaAccordo</t>
   </si>
   <si>
-    <t>(evento.separazione.assegnoMantenimento,=,false &amp;&amp; evento.separazione.tipoProvvedimentoSeparazione,=,1) || evento.separazione.tipoProvvedimentoSeparazione,=,2 || evento.separazione.tipoProvvedimentoSeparazione,=,3</t>
+    <t>evento.separazione.assegnoMantenimento,=,false</t>
   </si>
   <si>
     <t>Dati assegno mantenimento/divorzile</t>
@@ -506,31 +503,7 @@
     <t>foroAvvocatoConiuge2</t>
   </si>
   <si>
-    <t>Accordo Separazione</t>
-  </si>
-  <si>
-    <t>evento.separazione.accordoSeparazione</t>
-  </si>
-  <si>
-    <t>evento.separazione.tipoProvvedimentoSeparazione,=,1</t>
-  </si>
-  <si>
-    <t>Conferma Accordo Separazione</t>
-  </si>
-  <si>
-    <t>evento.separazione.confermaAccordoSeparazione</t>
-  </si>
-  <si>
-    <t>evento.separazione.tipoProvvedimentoSeparazione,!=,3</t>
-  </si>
-  <si>
     <t>Dettagli evento</t>
-  </si>
-  <si>
-    <t>Tipo Separazione</t>
-  </si>
-  <si>
-    <t>tipoProvvedimentoSeparazione</t>
   </si>
   <si>
     <t>Assegno Mantentimento/Divorzile</t>
@@ -607,19 +580,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.16015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.09765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="34.66796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="46.0390625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="29.2265625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="43.8046875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.41796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="206.45703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="50.27734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1332,7 +1305,7 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
@@ -1340,7 +1313,7 @@
         <v>72</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
@@ -1349,13 +1322,13 @@
         <v>74</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
@@ -1363,7 +1336,7 @@
         <v>72</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
@@ -1372,13 +1345,13 @@
         <v>74</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1359,7 @@
         <v>72</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -1395,13 +1368,13 @@
         <v>74</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
@@ -1409,7 +1382,7 @@
         <v>72</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
@@ -1418,13 +1391,13 @@
         <v>74</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
@@ -1432,7 +1405,7 @@
         <v>72</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -1441,13 +1414,13 @@
         <v>74</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
@@ -1455,7 +1428,7 @@
         <v>72</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
@@ -1464,21 +1437,21 @@
         <v>74</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -1487,21 +1460,21 @@
         <v>29</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
@@ -1510,21 +1483,21 @@
         <v>29</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
@@ -1533,21 +1506,21 @@
         <v>29</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
@@ -1556,21 +1529,21 @@
         <v>29</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
@@ -1579,21 +1552,21 @@
         <v>29</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
@@ -1602,21 +1575,21 @@
         <v>29</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
@@ -1625,21 +1598,21 @@
         <v>29</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
@@ -1648,67 +1621,67 @@
         <v>29</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -1717,21 +1690,21 @@
         <v>29</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
@@ -1740,56 +1713,56 @@
         <v>29</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E51" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>20</v>
@@ -1797,19 +1770,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1820,19 +1793,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1843,19 +1816,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1866,19 +1839,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1889,19 +1862,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1912,19 +1885,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1935,19 +1908,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1958,19 +1931,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1981,16 +1954,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>127</v>
@@ -2004,19 +1977,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2027,19 +2000,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2050,19 +2023,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2073,19 +2046,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2096,19 +2069,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2119,19 +2092,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2142,19 +2115,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2165,19 +2138,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2188,19 +2161,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2211,19 +2184,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2234,19 +2207,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2257,19 +2230,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2280,22 +2253,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>20</v>
@@ -2303,22 +2276,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E74" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>20</v>
@@ -2326,19 +2299,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E75" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2349,19 +2322,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E76" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2372,19 +2345,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2395,19 +2368,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E78" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2418,19 +2391,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2441,19 +2414,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2464,19 +2437,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E81" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2487,19 +2460,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2510,16 +2483,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>127</v>
@@ -2533,19 +2506,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2556,19 +2529,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2579,19 +2552,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E86" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2602,19 +2575,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E87" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2625,19 +2598,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2648,19 +2621,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2671,19 +2644,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2694,19 +2667,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2717,19 +2690,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E92" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2740,19 +2713,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E93" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2763,19 +2736,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E94" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2786,19 +2759,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E95" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2809,806 +2782,208 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="E100" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>162</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>166</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="187">
   <si>
     <t>Sezione</t>
   </si>
@@ -471,6 +471,30 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Moglie</t>
@@ -607,7 +631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2303,22 +2327,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>20</v>
@@ -2326,19 +2350,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2349,19 +2373,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2372,19 +2396,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2395,22 +2419,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>20</v>
@@ -2418,19 +2442,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2441,19 +2465,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2464,19 +2488,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2487,19 +2511,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2510,19 +2534,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2533,19 +2557,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2556,19 +2580,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2579,19 +2603,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2602,19 +2626,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2625,19 +2649,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2648,19 +2672,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2671,19 +2695,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2694,19 +2718,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2717,19 +2741,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2740,19 +2764,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2763,19 +2787,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2786,19 +2810,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2809,19 +2833,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2832,783 +2856,967 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>162</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>162</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>162</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>166</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>166</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
+      <c r="E105" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
+      <c r="E106" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>58</v>
+        <v>166</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>172</v>
+        <v>59</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>174</v>
+        <v>61</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="E135" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
+      <c r="B136" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
@@ -3644,7 +3644,7 @@
         <v>65</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>176</v>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="189">
   <si>
     <t>Sezione</t>
   </si>
@@ -350,6 +350,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -401,13 +407,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -631,7 +637,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1850,7 +1856,7 @@
         <v>112</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>108</v>
@@ -1942,7 +1948,7 @@
         <v>120</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>108</v>
@@ -2031,7 +2037,7 @@
         <v>106</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
@@ -2040,7 +2046,7 @@
         <v>108</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2054,10 +2060,10 @@
         <v>106</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>108</v>
@@ -2149,7 +2155,7 @@
         <v>137</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>108</v>
@@ -2264,7 +2270,7 @@
         <v>147</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>108</v>
@@ -2333,7 +2339,7 @@
         <v>153</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>108</v>
@@ -2419,22 +2425,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>20</v>
@@ -2442,22 +2448,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>20</v>
@@ -2465,19 +2471,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2488,19 +2494,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2511,19 +2517,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2534,19 +2540,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2557,19 +2563,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2580,19 +2586,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2603,19 +2609,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2626,19 +2632,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2649,19 +2655,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2672,19 +2678,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2695,19 +2701,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2718,19 +2724,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2741,19 +2747,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2764,19 +2770,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2787,19 +2793,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2810,19 +2816,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2833,19 +2839,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2856,19 +2862,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2879,19 +2885,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2902,19 +2908,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2925,19 +2931,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2948,19 +2954,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2971,19 +2977,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2994,19 +3000,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3017,19 +3023,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3043,7 +3049,7 @@
         <v>163</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
@@ -3052,13 +3058,13 @@
         <v>164</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106">
@@ -3066,7 +3072,7 @@
         <v>163</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
@@ -3075,711 +3081,711 @@
         <v>164</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E107" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F109" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="2" t="s">
+      <c r="E123" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
+      <c r="E124" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="E135" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E136" s="2" t="s">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>20</v>
+        <v>179</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -3788,7 +3794,7 @@
         <v>29</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3799,10 +3805,10 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -3811,12 +3817,58 @@
         <v>29</v>
       </c>
       <c r="E138" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="2" t="s">
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="191">
   <si>
     <t>Sezione</t>
   </si>
@@ -417,6 +417,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -637,7 +643,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1741,7 +1747,7 @@
         <v>99</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>29</v>
@@ -2132,7 +2138,7 @@
         <v>135</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>108</v>
@@ -2155,7 +2161,7 @@
         <v>137</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>108</v>
@@ -2293,7 +2299,7 @@
         <v>149</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>108</v>
@@ -2362,7 +2368,7 @@
         <v>155</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>108</v>
@@ -2448,22 +2454,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>20</v>
@@ -2471,22 +2477,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>20</v>
@@ -2494,19 +2500,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2517,19 +2523,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2540,19 +2546,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2563,19 +2569,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2586,19 +2592,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2609,19 +2615,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2632,19 +2638,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2655,19 +2661,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2678,19 +2684,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2701,19 +2707,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2724,19 +2730,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2747,19 +2753,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2770,19 +2776,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2793,19 +2799,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2816,19 +2822,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2839,19 +2845,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2862,19 +2868,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2885,19 +2891,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2908,19 +2914,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2931,19 +2937,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2954,19 +2960,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2977,19 +2983,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3000,19 +3006,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3023,19 +3029,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3046,19 +3052,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3069,19 +3075,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3095,7 +3101,7 @@
         <v>165</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
@@ -3104,13 +3110,13 @@
         <v>166</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108">
@@ -3118,7 +3124,7 @@
         <v>165</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
@@ -3127,711 +3133,711 @@
         <v>166</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E109" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F111" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="2" t="s">
+      <c r="E125" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
+      <c r="E126" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="E137" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E138" s="2" t="s">
-        <v>184</v>
+        <v>71</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>20</v>
+        <v>181</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -3840,7 +3846,7 @@
         <v>29</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3851,10 +3857,10 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -3863,12 +3869,58 @@
         <v>29</v>
       </c>
       <c r="E140" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="193">
   <si>
     <t>Sezione</t>
   </si>
@@ -417,6 +417,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -643,7 +649,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:H144"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2322,7 +2328,7 @@
         <v>151</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>108</v>
@@ -2391,7 +2397,7 @@
         <v>157</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>108</v>
@@ -2477,22 +2483,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>20</v>
@@ -2500,22 +2506,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>20</v>
@@ -2523,19 +2529,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2546,19 +2552,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2569,19 +2575,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2592,19 +2598,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2615,19 +2621,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2638,19 +2644,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2661,19 +2667,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2684,19 +2690,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2707,19 +2713,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2730,19 +2736,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2753,19 +2759,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2776,19 +2782,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2799,19 +2805,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2822,19 +2828,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2845,19 +2851,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2868,19 +2874,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2891,19 +2897,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2914,19 +2920,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2937,19 +2943,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2960,19 +2966,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2983,19 +2989,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3006,19 +3012,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3029,19 +3035,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3052,19 +3058,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3075,19 +3081,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3098,19 +3104,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3121,19 +3127,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3147,7 +3153,7 @@
         <v>167</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
@@ -3156,13 +3162,13 @@
         <v>168</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110">
@@ -3170,7 +3176,7 @@
         <v>167</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
@@ -3179,711 +3185,711 @@
         <v>168</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E111" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F113" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="2" t="s">
+      <c r="E127" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2" t="s">
+      <c r="E128" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="E139" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E140" s="2" t="s">
-        <v>186</v>
+        <v>71</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>20</v>
+        <v>183</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
@@ -3892,7 +3898,7 @@
         <v>29</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3903,10 +3909,10 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
@@ -3915,12 +3921,58 @@
         <v>29</v>
       </c>
       <c r="E142" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="2" t="s">
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="195">
   <si>
     <t>Sezione</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -649,7 +655,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H144"/>
+  <dimension ref="A1:H147"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1339,7 +1345,7 @@
         <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>50</v>
@@ -1348,7 +1354,7 @@
         <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>20</v>
@@ -1356,53 +1362,53 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
@@ -1411,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1420,12 +1426,12 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
@@ -1434,7 +1440,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1443,12 +1449,12 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
@@ -1457,7 +1463,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>84</v>
@@ -1466,12 +1472,12 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
@@ -1480,7 +1486,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>86</v>
@@ -1489,12 +1495,12 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
@@ -1503,7 +1509,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>88</v>
@@ -1512,38 +1518,38 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
@@ -1552,18 +1558,18 @@
         <v>29</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>95</v>
@@ -1581,18 +1587,18 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>29</v>
@@ -1601,15 +1607,15 @@
         <v>98</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>99</v>
@@ -1624,21 +1630,21 @@
         <v>100</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>29</v>
@@ -1650,15 +1656,15 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
@@ -1667,21 +1673,21 @@
         <v>29</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
@@ -1690,18 +1696,18 @@
         <v>29</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>95</v>
@@ -1719,18 +1725,18 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>29</v>
@@ -1739,15 +1745,15 @@
         <v>98</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>99</v>
@@ -1762,41 +1768,41 @@
         <v>100</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
@@ -1805,56 +1811,56 @@
         <v>29</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>20</v>
@@ -1862,16 +1868,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>113</v>
@@ -1885,16 +1891,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>115</v>
@@ -1908,7 +1914,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>116</v>
@@ -1917,7 +1923,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>117</v>
@@ -1931,7 +1937,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>118</v>
@@ -1940,7 +1946,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>119</v>
@@ -1954,7 +1960,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>120</v>
@@ -1963,7 +1969,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>121</v>
@@ -1977,16 +1983,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>123</v>
@@ -2000,7 +2006,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>124</v>
@@ -2009,7 +2015,7 @@
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>125</v>
@@ -2023,7 +2029,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>126</v>
@@ -2032,7 +2038,7 @@
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>127</v>
@@ -2046,7 +2052,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>128</v>
@@ -2055,7 +2061,7 @@
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>129</v>
@@ -2069,19 +2075,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2092,16 +2098,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>132</v>
@@ -2115,7 +2121,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>133</v>
@@ -2124,7 +2130,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>134</v>
@@ -2138,16 +2144,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>136</v>
@@ -2161,7 +2167,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>137</v>
@@ -2170,7 +2176,7 @@
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>138</v>
@@ -2184,7 +2190,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>139</v>
@@ -2193,7 +2199,7 @@
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>140</v>
@@ -2207,7 +2213,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>141</v>
@@ -2216,7 +2222,7 @@
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>142</v>
@@ -2230,7 +2236,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>143</v>
@@ -2239,7 +2245,7 @@
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>144</v>
@@ -2253,7 +2259,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>145</v>
@@ -2262,7 +2268,7 @@
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>146</v>
@@ -2276,7 +2282,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>147</v>
@@ -2285,7 +2291,7 @@
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>148</v>
@@ -2299,7 +2305,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>149</v>
@@ -2308,7 +2314,7 @@
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>150</v>
@@ -2322,7 +2328,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>151</v>
@@ -2331,7 +2337,7 @@
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>152</v>
@@ -2345,16 +2351,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>154</v>
@@ -2368,7 +2374,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>155</v>
@@ -2377,7 +2383,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>156</v>
@@ -2391,7 +2397,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>157</v>
@@ -2400,7 +2406,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>158</v>
@@ -2414,16 +2420,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>160</v>
@@ -2437,7 +2443,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>161</v>
@@ -2446,7 +2452,7 @@
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>162</v>
@@ -2460,7 +2466,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>163</v>
@@ -2469,7 +2475,7 @@
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>164</v>
@@ -2483,7 +2489,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>165</v>
@@ -2492,7 +2498,7 @@
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>166</v>
@@ -2506,22 +2512,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>20</v>
@@ -2529,22 +2535,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>20</v>
@@ -2552,16 +2558,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>113</v>
@@ -2575,16 +2581,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>115</v>
@@ -2598,7 +2604,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>116</v>
@@ -2607,7 +2613,7 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>117</v>
@@ -2621,7 +2627,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>118</v>
@@ -2630,7 +2636,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>119</v>
@@ -2644,7 +2650,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>120</v>
@@ -2653,7 +2659,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>121</v>
@@ -2667,16 +2673,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>123</v>
@@ -2690,7 +2696,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>124</v>
@@ -2699,7 +2705,7 @@
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>125</v>
@@ -2713,7 +2719,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>126</v>
@@ -2722,7 +2728,7 @@
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>127</v>
@@ -2736,7 +2742,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>128</v>
@@ -2745,7 +2751,7 @@
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>129</v>
@@ -2759,19 +2765,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2782,16 +2788,16 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>132</v>
@@ -2805,7 +2811,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>133</v>
@@ -2814,7 +2820,7 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>134</v>
@@ -2828,16 +2834,16 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>136</v>
@@ -2851,7 +2857,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>137</v>
@@ -2860,7 +2866,7 @@
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>138</v>
@@ -2874,7 +2880,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>139</v>
@@ -2883,7 +2889,7 @@
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>140</v>
@@ -2897,7 +2903,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>141</v>
@@ -2906,7 +2912,7 @@
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>142</v>
@@ -2920,7 +2926,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>143</v>
@@ -2929,7 +2935,7 @@
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>144</v>
@@ -2943,7 +2949,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>145</v>
@@ -2952,7 +2958,7 @@
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>146</v>
@@ -2966,7 +2972,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>147</v>
@@ -2975,7 +2981,7 @@
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>148</v>
@@ -2989,7 +2995,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>149</v>
@@ -2998,7 +3004,7 @@
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>150</v>
@@ -3012,7 +3018,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>151</v>
@@ -3021,7 +3027,7 @@
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>152</v>
@@ -3035,16 +3041,16 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>154</v>
@@ -3058,7 +3064,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>155</v>
@@ -3067,7 +3073,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>156</v>
@@ -3081,7 +3087,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>157</v>
@@ -3090,7 +3096,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>158</v>
@@ -3104,16 +3110,16 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>160</v>
@@ -3127,7 +3133,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>161</v>
@@ -3136,7 +3142,7 @@
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>162</v>
@@ -3150,7 +3156,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>163</v>
@@ -3159,7 +3165,7 @@
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>164</v>
@@ -3173,7 +3179,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>165</v>
@@ -3182,7 +3188,7 @@
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>166</v>
@@ -3199,7 +3205,7 @@
         <v>169</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
@@ -3208,27 +3214,27 @@
         <v>170</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>171</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>111</v>
@@ -3237,67 +3243,67 @@
         <v>14</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E113" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F114" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>111</v>
@@ -3306,659 +3312,659 @@
         <v>14</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>29</v>
+        <v>177</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>177</v>
+        <v>113</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="2" t="s">
+      <c r="E129" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
+      <c r="E130" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="E141" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E142" s="2" t="s">
-        <v>188</v>
+        <v>71</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>20</v>
+        <v>185</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E143" s="2" t="s">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>20</v>
+        <v>185</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
@@ -3967,12 +3973,81 @@
         <v>29</v>
       </c>
       <c r="E144" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="199">
   <si>
     <t>Sezione</t>
   </si>
@@ -366,6 +366,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -655,7 +667,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H147"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1943,7 +1955,7 @@
         <v>118</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>110</v>
@@ -1966,7 +1978,7 @@
         <v>120</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>110</v>
@@ -2012,7 +2024,7 @@
         <v>124</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>110</v>
@@ -2035,7 +2047,7 @@
         <v>126</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>110</v>
@@ -2101,7 +2113,7 @@
         <v>108</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
@@ -2110,7 +2122,7 @@
         <v>110</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2124,16 +2136,16 @@
         <v>108</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2147,10 +2159,10 @@
         <v>108</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>110</v>
@@ -2173,7 +2185,7 @@
         <v>137</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>110</v>
@@ -2196,7 +2208,7 @@
         <v>139</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>110</v>
@@ -2380,7 +2392,7 @@
         <v>155</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>110</v>
@@ -2403,7 +2415,7 @@
         <v>157</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>110</v>
@@ -2449,7 +2461,7 @@
         <v>161</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>110</v>
@@ -2472,7 +2484,7 @@
         <v>163</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>110</v>
@@ -2535,22 +2547,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>20</v>
@@ -2558,19 +2570,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2581,22 +2593,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>20</v>
@@ -2604,19 +2616,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2627,19 +2639,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2650,19 +2662,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2673,19 +2685,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2696,19 +2708,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2719,19 +2731,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2742,19 +2754,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2765,19 +2777,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2788,19 +2800,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2811,19 +2823,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2834,19 +2846,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2857,19 +2869,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2880,19 +2892,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2903,19 +2915,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2926,19 +2938,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2949,19 +2961,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2972,19 +2984,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2995,19 +3007,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3018,19 +3030,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3041,19 +3053,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3064,19 +3076,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3087,19 +3099,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3110,19 +3122,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3133,19 +3145,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3156,19 +3168,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3179,19 +3191,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3202,19 +3214,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3225,163 +3237,163 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E117" s="2" t="s">
-        <v>179</v>
+        <v>113</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>49</v>
+        <v>178</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="119">
@@ -3389,19 +3401,19 @@
         <v>180</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>181</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>182</v>
@@ -3412,19 +3424,19 @@
         <v>180</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>181</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>182</v>
@@ -3435,16 +3447,16 @@
         <v>180</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3455,599 +3467,691 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>187</v>
+        <v>66</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>188</v>
+        <v>67</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>20</v>
+        <v>189</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>192</v>
+        <v>71</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>20</v>
+        <v>189</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="E149" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="2" t="s">
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="199">
   <si>
     <t>Sezione</t>
   </si>
@@ -542,28 +542,28 @@
     <t>Avvocato Marito</t>
   </si>
   <si>
+    <t>Foro di appartenenza</t>
+  </si>
+  <si>
+    <t>foroAvvocatoConiuge1</t>
+  </si>
+  <si>
+    <t>evento.separazione.presenzaAvvocatoConiuge1,=,false</t>
+  </si>
+  <si>
     <t>evento.separazione.avvocatoConiuge1</t>
   </si>
   <si>
-    <t>evento.separazione.presenzaAvvocatoConiuge1,=,false</t>
-  </si>
-  <si>
-    <t>Foro di appartenenza</t>
-  </si>
-  <si>
-    <t>foroAvvocatoConiuge1</t>
-  </si>
-  <si>
     <t>Avvocato Moglie</t>
   </si>
   <si>
+    <t>foroAvvocatoConiuge2</t>
+  </si>
+  <si>
+    <t>evento.separazione.presenzaAvvocatoConiuge2,=,false</t>
+  </si>
+  <si>
     <t>evento.separazione.avvocatoConiuge2</t>
-  </si>
-  <si>
-    <t>evento.separazione.presenzaAvvocatoConiuge2,=,false</t>
-  </si>
-  <si>
-    <t>foroAvvocatoConiuge2</t>
   </si>
   <si>
     <t>Accordo Separazione</t>
@@ -667,7 +667,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:H203"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3332,22 +3332,22 @@
         <v>175</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="117">
@@ -3355,22 +3355,22 @@
         <v>175</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="118">
@@ -3378,780 +3378,1976 @@
         <v>175</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>63</v>
+        <v>159</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>69</v>
+        <v>181</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>20</v>
+        <v>182</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>20</v>
+        <v>182</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>20</v>
+        <v>182</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B200" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="2" t="s">
+      <c r="C203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="E203" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="203">
   <si>
     <t>Sezione</t>
   </si>
@@ -548,19 +548,25 @@
     <t>foroAvvocatoConiuge1</t>
   </si>
   <si>
-    <t>evento.separazione.presenzaAvvocatoConiuge1,=,false</t>
+    <t>evento.separazione.presenzaAvvocatoConiuge1,=,false || evento.separazione.avvocatoUnico,=,true</t>
   </si>
   <si>
     <t>evento.separazione.avvocatoConiuge1</t>
   </si>
   <si>
+    <t>Avvocato</t>
+  </si>
+  <si>
+    <t>evento.separazione.avvocatoUnico,=,false</t>
+  </si>
+  <si>
     <t>Avvocato Moglie</t>
   </si>
   <si>
     <t>foroAvvocatoConiuge2</t>
   </si>
   <si>
-    <t>evento.separazione.presenzaAvvocatoConiuge2,=,false</t>
+    <t>evento.separazione.presenzaAvvocatoConiuge2,=,false || evento.separazione.avvocatoUnico,=,true</t>
   </si>
   <si>
     <t>evento.separazione.avvocatoConiuge2</t>
@@ -597,6 +603,12 @@
   </si>
   <si>
     <t>assegnoMantenimento</t>
+  </si>
+  <si>
+    <t>Avvocato unico per entrambe le parti</t>
+  </si>
+  <si>
+    <t>avvocatoUnico</t>
   </si>
   <si>
     <t>Presenza avvocato Marito</t>
@@ -667,7 +679,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H203"/>
+  <dimension ref="A1:H233"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4002,19 +4014,19 @@
         <v>176</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E145" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="146">
@@ -4025,19 +4037,19 @@
         <v>109</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="147">
@@ -4048,19 +4060,19 @@
         <v>112</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="148">
@@ -4074,7 +4086,7 @@
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>115</v>
@@ -4083,7 +4095,7 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="149">
@@ -4097,7 +4109,7 @@
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>117</v>
@@ -4106,7 +4118,7 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="150">
@@ -4120,7 +4132,7 @@
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>119</v>
@@ -4129,7 +4141,7 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="151">
@@ -4143,7 +4155,7 @@
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>121</v>
@@ -4152,7 +4164,7 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="152">
@@ -4166,7 +4178,7 @@
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>123</v>
@@ -4175,7 +4187,7 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="153">
@@ -4189,7 +4201,7 @@
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>125</v>
@@ -4198,7 +4210,7 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="154">
@@ -4212,7 +4224,7 @@
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>127</v>
@@ -4221,7 +4233,7 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="155">
@@ -4235,7 +4247,7 @@
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>129</v>
@@ -4244,7 +4256,7 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="156">
@@ -4258,7 +4270,7 @@
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>131</v>
@@ -4267,7 +4279,7 @@
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="157">
@@ -4281,7 +4293,7 @@
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>133</v>
@@ -4290,7 +4302,7 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="158">
@@ -4304,7 +4316,7 @@
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>135</v>
@@ -4313,7 +4325,7 @@
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="159">
@@ -4327,7 +4339,7 @@
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>136</v>
@@ -4336,7 +4348,7 @@
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="160">
@@ -4350,7 +4362,7 @@
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>138</v>
@@ -4359,7 +4371,7 @@
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="161">
@@ -4373,7 +4385,7 @@
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>140</v>
@@ -4382,7 +4394,7 @@
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="162">
@@ -4396,7 +4408,7 @@
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>142</v>
@@ -4405,7 +4417,7 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163">
@@ -4419,7 +4431,7 @@
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>144</v>
@@ -4428,7 +4440,7 @@
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="164">
@@ -4442,7 +4454,7 @@
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>146</v>
@@ -4451,7 +4463,7 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="165">
@@ -4465,7 +4477,7 @@
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>148</v>
@@ -4474,7 +4486,7 @@
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="166">
@@ -4488,7 +4500,7 @@
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>150</v>
@@ -4497,7 +4509,7 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="167">
@@ -4511,7 +4523,7 @@
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>152</v>
@@ -4520,7 +4532,7 @@
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168">
@@ -4534,7 +4546,7 @@
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>154</v>
@@ -4543,7 +4555,7 @@
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="169">
@@ -4557,7 +4569,7 @@
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>156</v>
@@ -4566,7 +4578,7 @@
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="170">
@@ -4580,7 +4592,7 @@
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>158</v>
@@ -4589,7 +4601,7 @@
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="171">
@@ -4603,7 +4615,7 @@
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>160</v>
@@ -4612,7 +4624,7 @@
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="172">
@@ -4626,7 +4638,7 @@
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>162</v>
@@ -4635,7 +4647,7 @@
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="173">
@@ -4649,7 +4661,7 @@
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>164</v>
@@ -4658,222 +4670,222 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>12</v>
@@ -4882,21 +4894,21 @@
         <v>185</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>12</v>
@@ -4905,21 +4917,21 @@
         <v>185</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>12</v>
@@ -4928,426 +4940,1116 @@
         <v>185</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>20</v>
+        <v>184</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>20</v>
+        <v>184</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>20</v>
+        <v>184</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="E216" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D203" s="2" t="s">
+      <c r="C231" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D231" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E203" s="2" t="s">
+      <c r="E231" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F203" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G203" s="2" t="s">
+      <c r="F231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="206">
   <si>
     <t>Sezione</t>
   </si>
@@ -296,7 +296,7 @@
     <t>tipoSeparazioneDivorzio</t>
   </si>
   <si>
-    <t>(evento.separazione.assegnoMantenimento,=,true &amp;&amp; evento.separazione.tipoProvvedimentoSeparazione,=,1) || evento.separazione.tipoProvvedimentoSeparazione,=,2 || evento.separazione.tipoProvvedimentoSeparazione,=,3</t>
+    <t>(evento.separazione.assegnoMantenimento,=,true &amp;&amp; evento.separazione.tipoProvvedimentoSeparazione,=,1) || evento.separazione.tipoProvvedimentoSeparazione,=,2 || evento.separazione.tipoProvvedimentoSeparazione,=,3 || evento.separazione.tipoProvvedimentoSeparazione,=,4</t>
   </si>
   <si>
     <t>Tipo accordo</t>
@@ -329,7 +329,7 @@
     <t>modificaAccordo</t>
   </si>
   <si>
-    <t>(evento.separazione.assegnoMantenimento,=,false &amp;&amp; evento.separazione.tipoProvvedimentoSeparazione,=,1) || evento.separazione.tipoProvvedimentoSeparazione,=,2 || evento.separazione.tipoProvvedimentoSeparazione,=,3</t>
+    <t>(evento.separazione.assegnoMantenimento,=,false &amp;&amp; evento.separazione.tipoProvvedimentoSeparazione,=,1) || evento.separazione.tipoProvvedimentoSeparazione,=,2 || evento.separazione.tipoProvvedimentoSeparazione,=,3 || evento.separazione.tipoProvvedimentoSeparazione,=,4</t>
   </si>
   <si>
     <t>Dati assegno mantenimento/divorzile</t>
@@ -578,7 +578,13 @@
     <t>evento.separazione.accordoSeparazione</t>
   </si>
   <si>
-    <t>evento.separazione.tipoProvvedimentoSeparazione,=,1</t>
+    <t>evento.separazione.tipoProvvedimentoSeparazione,=,1 || evento.separazione.tipoProvvedimentoSeparazione,=,4</t>
+  </si>
+  <si>
+    <t>Accordo Divorzio</t>
+  </si>
+  <si>
+    <t>evento.separazione.tipoProvvedimentoSeparazione,!=,4</t>
   </si>
   <si>
     <t>Conferma Accordo Separazione</t>
@@ -588,6 +594,9 @@
   </si>
   <si>
     <t>evento.separazione.tipoProvvedimentoSeparazione,!=,3</t>
+  </si>
+  <si>
+    <t>Conferma Accordo Divorzio</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -679,7 +688,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H233"/>
+  <dimension ref="A1:H259"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -691,7 +700,7 @@
     <col min="4" max="4" width="46.0390625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="29.2265625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="206.45703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5650,7 +5659,7 @@
         <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>51</v>
@@ -5659,7 +5668,7 @@
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="217">
@@ -5673,7 +5682,7 @@
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>53</v>
@@ -5682,7 +5691,7 @@
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="218">
@@ -5696,7 +5705,7 @@
         <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>55</v>
@@ -5705,7 +5714,7 @@
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="219">
@@ -5719,7 +5728,7 @@
         <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>57</v>
@@ -5728,7 +5737,7 @@
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="220">
@@ -5742,7 +5751,7 @@
         <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>59</v>
@@ -5751,7 +5760,7 @@
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="221">
@@ -5765,7 +5774,7 @@
         <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>61</v>
@@ -5774,7 +5783,7 @@
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="222">
@@ -5788,7 +5797,7 @@
         <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>19</v>
@@ -5797,7 +5806,7 @@
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="223">
@@ -5811,7 +5820,7 @@
         <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>64</v>
@@ -5820,7 +5829,7 @@
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="224">
@@ -5831,10 +5840,10 @@
         <v>65</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>22</v>
@@ -5843,7 +5852,7 @@
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="225">
@@ -5857,7 +5866,7 @@
         <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>67</v>
@@ -5866,7 +5875,7 @@
         <v>14</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="226">
@@ -5880,7 +5889,7 @@
         <v>12</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>69</v>
@@ -5889,7 +5898,7 @@
         <v>14</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="227">
@@ -5903,7 +5912,7 @@
         <v>12</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>71</v>
@@ -5912,7 +5921,7 @@
         <v>14</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="228">
@@ -5926,7 +5935,7 @@
         <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>73</v>
@@ -5935,121 +5944,719 @@
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D229" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="E229" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G229" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E230" s="2" t="s">
-        <v>196</v>
+        <v>53</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>20</v>
+        <v>193</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D231" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E231" s="2" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>20</v>
+        <v>193</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D232" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B232" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E232" s="2" t="s">
-        <v>200</v>
+        <v>57</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>20</v>
+        <v>193</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D233" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="E233" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G246" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G250" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G251" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G252" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G253" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G254" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G255" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G256" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E257" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C233" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D233" s="2" t="s">
+      <c r="F257" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G257" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D258" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E233" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G233" s="2" t="s">
+      <c r="E258" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G258" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G259" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="207">
   <si>
     <t>Sezione</t>
   </si>
@@ -41,24 +41,24 @@
     <t>Atto di matrimonio</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Certificato di residenza</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>121-septies</t>
+  </si>
+  <si>
     <t>SI</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Certificato di residenza</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>121-septies</t>
-  </si>
-  <si>
     <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>idAnsc</t>
+  </si>
+  <si>
+    <t>opzionale</t>
   </si>
   <si>
     <t>Provincia registrazione</t>
@@ -757,7 +760,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -774,13 +777,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -826,7 +829,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -849,7 +852,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -872,7 +875,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
@@ -895,7 +898,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
@@ -918,7 +921,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>29</v>
@@ -941,7 +944,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
@@ -964,7 +967,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>32</v>
@@ -973,7 +976,7 @@
         <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>20</v>
@@ -987,7 +990,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>32</v>
@@ -1010,7 +1013,7 @@
         <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>32</v>
@@ -1033,7 +1036,7 @@
         <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>32</v>
@@ -1056,7 +1059,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>32</v>
@@ -1065,7 +1068,7 @@
         <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>20</v>
@@ -1079,7 +1082,7 @@
         <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>32</v>
@@ -1088,7 +1091,7 @@
         <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>20</v>
@@ -1102,7 +1105,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>29</v>
@@ -1125,7 +1128,7 @@
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>50</v>
@@ -1137,7 +1140,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
@@ -1145,22 +1148,22 @@
         <v>48</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
@@ -1168,22 +1171,22 @@
         <v>48</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22">
@@ -1191,22 +1194,22 @@
         <v>48</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23">
@@ -1214,22 +1217,22 @@
         <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24">
@@ -1237,22 +1240,22 @@
         <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25">
@@ -1260,10 +1263,10 @@
         <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>50</v>
@@ -1275,7 +1278,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
@@ -1283,22 +1286,22 @@
         <v>48</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27">
@@ -1306,10 +1309,10 @@
         <v>48</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>50</v>
@@ -1321,7 +1324,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28">
@@ -1329,22 +1332,22 @@
         <v>48</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29">
@@ -1352,22 +1355,22 @@
         <v>48</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
@@ -1375,22 +1378,22 @@
         <v>48</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31">
@@ -1398,502 +1401,502 @@
         <v>48</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>20</v>
@@ -1901,19 +1904,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1924,19 +1927,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1947,19 +1950,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1970,19 +1973,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1993,19 +1996,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -2016,19 +2019,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2039,19 +2042,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2062,19 +2065,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2085,19 +2088,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2108,19 +2111,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2131,19 +2134,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2154,19 +2157,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2177,19 +2180,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2200,19 +2203,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2223,19 +2226,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2246,19 +2249,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2269,19 +2272,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2292,19 +2295,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2315,19 +2318,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2338,19 +2341,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2361,19 +2364,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2384,19 +2387,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2407,19 +2410,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2430,19 +2433,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2453,19 +2456,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2476,19 +2479,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2499,19 +2502,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2522,19 +2525,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2545,19 +2548,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2568,19 +2571,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2591,19 +2594,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2614,22 +2617,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>20</v>
@@ -2637,19 +2640,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2660,19 +2663,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2683,19 +2686,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2706,19 +2709,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2729,19 +2732,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2752,19 +2755,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2775,19 +2778,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2798,19 +2801,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2821,19 +2824,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2844,19 +2847,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2867,19 +2870,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2890,19 +2893,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2913,19 +2916,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2936,19 +2939,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2959,19 +2962,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2982,19 +2985,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -3005,19 +3008,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -3028,19 +3031,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3051,19 +3054,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3074,19 +3077,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3097,19 +3100,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3120,19 +3123,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3143,19 +3146,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3166,19 +3169,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3189,19 +3192,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3212,19 +3215,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3235,19 +3238,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3258,19 +3261,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3281,19 +3284,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3304,19 +3307,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3327,19 +3330,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3350,2017 +3353,2017 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D142" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D144" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E146" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E147" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E148" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E149" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E150" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E151" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E152" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E153" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E154" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E155" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E156" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E157" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E158" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E160" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E161" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E162" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E163" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E164" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E165" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E166" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E167" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E168" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E169" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E170" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E171" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D172" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E172" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E173" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G193" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D200" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D201" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D202" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>51</v>
@@ -5369,136 +5372,136 @@
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>19</v>
@@ -5507,44 +5510,44 @@
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>22</v>
@@ -5553,113 +5556,113 @@
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>51</v>
@@ -5668,136 +5671,136 @@
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>19</v>
@@ -5806,44 +5809,44 @@
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>22</v>
@@ -5852,113 +5855,113 @@
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>51</v>
@@ -5967,136 +5970,136 @@
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>19</v>
@@ -6105,44 +6108,44 @@
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>22</v>
@@ -6151,113 +6154,113 @@
         <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>51</v>
@@ -6266,136 +6269,136 @@
         <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>19</v>
@@ -6404,44 +6407,44 @@
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>22</v>
@@ -6450,116 +6453,116 @@
         <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>10</v>
@@ -6570,19 +6573,19 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>10</v>
@@ -6593,19 +6596,19 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
@@ -6616,19 +6619,19 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>10</v>
@@ -6639,19 +6642,19 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
@@ -1022,7 +1022,7 @@
         <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>20</v>
